--- a/data_xlsx/美国_国债收益率_10年.xlsx
+++ b/data_xlsx/美国_国债收益率_10年.xlsx
@@ -27154,8 +27154,144 @@
         <v>3.99</v>
       </c>
     </row>
+    <row r="3385">
+      <c r="A3385" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B3385" s="2" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
     <row r="3386">
-      <c r="A3386" s="3" t="inlineStr">
+      <c r="A3386" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B3386" s="2" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B3387" s="2" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B3388" s="2" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B3389" s="2" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B3390" s="2" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B3391" s="2" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B3392" s="2" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B3393" s="2" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B3394" s="2" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3395" s="2" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3396" s="2" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3397" s="2" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3398" s="2" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3399" s="2" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3400" s="2" t="n">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3401" s="2" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
